--- a/src_BBS/doc/PecaTsu_ER図.xlsx
+++ b/src_BBS/doc/PecaTsu_ER図.xlsx
@@ -3173,8 +3173,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B1:BH74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A57" sqref="A57"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="H59" sqref="H59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3" defaultRowHeight="13.5"/>
@@ -6048,7 +6048,7 @@
       </c>
       <c r="X55" s="10"/>
       <c r="Y55" s="9" t="s">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="Z55" s="10"/>
       <c r="AA55" s="9" t="s">
@@ -6074,7 +6074,7 @@
       <c r="AS55" s="6"/>
       <c r="AV55" s="19" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">  `ImageNo` int(2) NOT NULL    COMMENT '連番',</v>
+        <v xml:space="preserve">  `ImageNo` int(2) NOT NULL  AUTO_INCREMENT  COMMENT '連番',</v>
       </c>
       <c r="BD55" s="19" t="str">
         <f t="shared" si="0"/>

--- a/src_BBS/doc/PecaTsu_ER図.xlsx
+++ b/src_BBS/doc/PecaTsu_ER図.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1225" uniqueCount="324">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1265" uniqueCount="324">
   <si>
     <t>配信者</t>
     <rPh sb="0" eb="2">
@@ -3171,10 +3171,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:BH74"/>
+  <dimension ref="B1:BH79"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H59" sqref="H59"/>
+    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G68" sqref="G68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3" defaultRowHeight="13.5"/>
@@ -3206,7 +3206,7 @@
         <v>285</v>
       </c>
       <c r="BD2" s="19" t="str">
-        <f t="shared" ref="BD2:BD67" si="0">IF(OR(C2="○",C2="×"),
+        <f t="shared" ref="BD2:BD72" si="0">IF(OR(C2="○",C2="×"),
 "        /// &lt;summary&gt;
         /// "&amp;E2&amp;"
         /// &lt;/summary&gt;
@@ -3571,7 +3571,7 @@
       <c r="AR9" s="7"/>
       <c r="AS9" s="6"/>
       <c r="AV9" s="19" t="str">
-        <f t="shared" ref="AV9:AV74" si="4">IF(OR(C9="○",C9="×"),"  `"&amp;L9&amp;"` "&amp;Q9&amp;
+        <f t="shared" ref="AV9:AV79" si="4">IF(OR(C9="○",C9="×"),"  `"&amp;L9&amp;"` "&amp;Q9&amp;
 IF(AND(U9&lt;&gt;"-",LEN(U9)&lt;&gt;0),"("&amp;U9&amp;")","")
 &amp;" "&amp;IF(W9="○","","NOT NULL")&amp;" "&amp;
 " "&amp;IF(Y9="○","AUTO_INCREMENT","")&amp;" "&amp;
@@ -5294,7 +5294,7 @@
 </v>
       </c>
       <c r="BE42" s="20" t="str">
-        <f t="shared" ref="BE42:BE61" si="9">IF(LEN(Q42)=0,"",
+        <f t="shared" ref="BE42:BE66" si="9">IF(LEN(Q42)=0,"",
 IF(Q42="tinyint","bool",
 IF(Q42="int","int",
 IF(Q42="varchar","string",
@@ -6150,7 +6150,7 @@
       <c r="AR56" s="7"/>
       <c r="AS56" s="6"/>
       <c r="AV56" s="19" t="str">
-        <f t="shared" ref="AV56" si="10">IF(OR(C56="○",C56="×"),"  `"&amp;L56&amp;"` "&amp;Q56&amp;
+        <f t="shared" ref="AV56:AV62" si="10">IF(OR(C56="○",C56="×"),"  `"&amp;L56&amp;"` "&amp;Q56&amp;
 IF(AND(U56&lt;&gt;"-",LEN(U56)&lt;&gt;0),"("&amp;U56&amp;")","")
 &amp;" "&amp;IF(W56="○","","NOT NULL")&amp;" "&amp;
 " "&amp;IF(Y56="○","AUTO_INCREMENT","")&amp;" "&amp;
@@ -6174,7 +6174,7 @@
         <v xml:space="preserve">  `ImageUrl` varchar(256) NOT NULL    COMMENT '画像URL',</v>
       </c>
       <c r="BD56" s="19" t="str">
-        <f t="shared" ref="BD56" si="11">IF(OR(C56="○",C56="×"),
+        <f t="shared" ref="BD56:BD62" si="11">IF(OR(C56="○",C56="×"),
 "        /// &lt;summary&gt;
         /// "&amp;E56&amp;"
         /// &lt;/summary&gt;
@@ -6198,7 +6198,7 @@
 </v>
       </c>
       <c r="BE56" s="20" t="str">
-        <f t="shared" ref="BE56" si="12">IF(LEN(Q56)=0,"",
+        <f t="shared" ref="BE56:BE62" si="12">IF(LEN(Q56)=0,"",
 IF(Q56="tinyint","bool",
 IF(Q56="int","int",
 IF(Q56="varchar","string",
@@ -6213,7 +6213,7 @@
       </c>
       <c r="D57" s="10"/>
       <c r="E57" s="22" t="s">
-        <v>323</v>
+        <v>3</v>
       </c>
       <c r="F57" s="29"/>
       <c r="G57" s="7"/>
@@ -6222,7 +6222,7 @@
       <c r="J57" s="7"/>
       <c r="K57" s="6"/>
       <c r="L57" s="5" t="s">
-        <v>299</v>
+        <v>255</v>
       </c>
       <c r="M57" s="7"/>
       <c r="N57" s="7"/>
@@ -6268,87 +6268,554 @@
       <c r="AR57" s="7"/>
       <c r="AS57" s="6"/>
       <c r="AV57" s="19" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
+        <v xml:space="preserve">  `ChannelName` varchar(256) NOT NULL    COMMENT '配信者名',</v>
+      </c>
+      <c r="BD57" s="19" t="str">
+        <f t="shared" si="11"/>
+        <v xml:space="preserve">        /// &lt;summary&gt;
+        /// 配信者名
+        /// &lt;/summary&gt;
+        public string ChannelName { get; set; }
+</v>
+      </c>
+      <c r="BE57" s="20" t="str">
+        <f t="shared" si="12"/>
+        <v>string</v>
+      </c>
+    </row>
+    <row r="58" spans="2:57">
+      <c r="C58" s="9" t="s">
+        <v>283</v>
+      </c>
+      <c r="D58" s="10"/>
+      <c r="E58" s="22" t="s">
+        <v>272</v>
+      </c>
+      <c r="F58" s="29"/>
+      <c r="G58" s="7"/>
+      <c r="H58" s="7"/>
+      <c r="I58" s="7"/>
+      <c r="J58" s="7"/>
+      <c r="K58" s="6"/>
+      <c r="L58" s="5" t="s">
+        <v>312</v>
+      </c>
+      <c r="M58" s="7"/>
+      <c r="N58" s="7"/>
+      <c r="O58" s="7"/>
+      <c r="P58" s="6"/>
+      <c r="Q58" s="5" t="s">
+        <v>282</v>
+      </c>
+      <c r="R58" s="7"/>
+      <c r="S58" s="7"/>
+      <c r="T58" s="7"/>
+      <c r="U58" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="V58" s="6"/>
+      <c r="W58" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="X58" s="10"/>
+      <c r="Y58" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="Z58" s="10"/>
+      <c r="AA58" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="AB58" s="24"/>
+      <c r="AC58" s="24"/>
+      <c r="AD58" s="10"/>
+      <c r="AE58" s="5"/>
+      <c r="AF58" s="7"/>
+      <c r="AG58" s="7"/>
+      <c r="AH58" s="7"/>
+      <c r="AI58" s="7"/>
+      <c r="AJ58" s="7"/>
+      <c r="AK58" s="7"/>
+      <c r="AL58" s="7"/>
+      <c r="AM58" s="7"/>
+      <c r="AN58" s="7"/>
+      <c r="AO58" s="7"/>
+      <c r="AP58" s="7"/>
+      <c r="AQ58" s="7"/>
+      <c r="AR58" s="7"/>
+      <c r="AS58" s="6"/>
+      <c r="AV58" s="19" t="str">
+        <f t="shared" si="10"/>
+        <v xml:space="preserve">  `WriterName` varchar(256) NOT NULL    COMMENT '名前',</v>
+      </c>
+      <c r="BD58" s="19" t="str">
+        <f t="shared" si="11"/>
+        <v xml:space="preserve">        /// &lt;summary&gt;
+        /// 名前
+        /// &lt;/summary&gt;
+        public string WriterName { get; set; }
+</v>
+      </c>
+      <c r="BE58" s="20" t="str">
+        <f t="shared" si="12"/>
+        <v>string</v>
+      </c>
+    </row>
+    <row r="59" spans="2:57">
+      <c r="C59" s="9" t="s">
+        <v>283</v>
+      </c>
+      <c r="D59" s="10"/>
+      <c r="E59" s="22" t="s">
+        <v>273</v>
+      </c>
+      <c r="F59" s="29"/>
+      <c r="G59" s="7"/>
+      <c r="H59" s="7"/>
+      <c r="I59" s="7"/>
+      <c r="J59" s="7"/>
+      <c r="K59" s="6"/>
+      <c r="L59" s="5" t="s">
+        <v>313</v>
+      </c>
+      <c r="M59" s="7"/>
+      <c r="N59" s="7"/>
+      <c r="O59" s="7"/>
+      <c r="P59" s="6"/>
+      <c r="Q59" s="5" t="s">
+        <v>282</v>
+      </c>
+      <c r="R59" s="7"/>
+      <c r="S59" s="7"/>
+      <c r="T59" s="7"/>
+      <c r="U59" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="V59" s="6"/>
+      <c r="W59" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="X59" s="10"/>
+      <c r="Y59" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="Z59" s="10"/>
+      <c r="AA59" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="AB59" s="24"/>
+      <c r="AC59" s="24"/>
+      <c r="AD59" s="10"/>
+      <c r="AE59" s="5"/>
+      <c r="AF59" s="7"/>
+      <c r="AG59" s="7"/>
+      <c r="AH59" s="7"/>
+      <c r="AI59" s="7"/>
+      <c r="AJ59" s="7"/>
+      <c r="AK59" s="7"/>
+      <c r="AL59" s="7"/>
+      <c r="AM59" s="7"/>
+      <c r="AN59" s="7"/>
+      <c r="AO59" s="7"/>
+      <c r="AP59" s="7"/>
+      <c r="AQ59" s="7"/>
+      <c r="AR59" s="7"/>
+      <c r="AS59" s="6"/>
+      <c r="AV59" s="19" t="str">
+        <f t="shared" si="10"/>
+        <v xml:space="preserve">  `WriterMail` varchar(256) NOT NULL    COMMENT 'メール',</v>
+      </c>
+      <c r="BD59" s="19" t="str">
+        <f t="shared" si="11"/>
+        <v xml:space="preserve">        /// &lt;summary&gt;
+        /// メール
+        /// &lt;/summary&gt;
+        public string WriterMail { get; set; }
+</v>
+      </c>
+      <c r="BE59" s="20" t="str">
+        <f t="shared" si="12"/>
+        <v>string</v>
+      </c>
+    </row>
+    <row r="60" spans="2:57">
+      <c r="C60" s="9" t="s">
+        <v>283</v>
+      </c>
+      <c r="D60" s="10"/>
+      <c r="E60" s="22" t="s">
+        <v>323</v>
+      </c>
+      <c r="F60" s="29"/>
+      <c r="G60" s="7"/>
+      <c r="H60" s="7"/>
+      <c r="I60" s="7"/>
+      <c r="J60" s="7"/>
+      <c r="K60" s="6"/>
+      <c r="L60" s="5" t="s">
+        <v>299</v>
+      </c>
+      <c r="M60" s="7"/>
+      <c r="N60" s="7"/>
+      <c r="O60" s="7"/>
+      <c r="P60" s="6"/>
+      <c r="Q60" s="5" t="s">
+        <v>282</v>
+      </c>
+      <c r="R60" s="7"/>
+      <c r="S60" s="7"/>
+      <c r="T60" s="7"/>
+      <c r="U60" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="V60" s="6"/>
+      <c r="W60" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="X60" s="10"/>
+      <c r="Y60" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="Z60" s="10"/>
+      <c r="AA60" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="AB60" s="24"/>
+      <c r="AC60" s="24"/>
+      <c r="AD60" s="10"/>
+      <c r="AE60" s="5"/>
+      <c r="AF60" s="7"/>
+      <c r="AG60" s="7"/>
+      <c r="AH60" s="7"/>
+      <c r="AI60" s="7"/>
+      <c r="AJ60" s="7"/>
+      <c r="AK60" s="7"/>
+      <c r="AL60" s="7"/>
+      <c r="AM60" s="7"/>
+      <c r="AN60" s="7"/>
+      <c r="AO60" s="7"/>
+      <c r="AP60" s="7"/>
+      <c r="AQ60" s="7"/>
+      <c r="AR60" s="7"/>
+      <c r="AS60" s="6"/>
+      <c r="AV60" s="19" t="str">
+        <f>IF(OR(C60="○",C60="×"),"  `"&amp;L60&amp;"` "&amp;Q60&amp;
+IF(AND(U60&lt;&gt;"-",LEN(U60)&lt;&gt;0),"("&amp;U60&amp;")","")
+&amp;" "&amp;IF(W60="○","","NOT NULL")&amp;" "&amp;
+" "&amp;IF(Y60="○","AUTO_INCREMENT","")&amp;" "&amp;
+IF(AND(AA60&lt;&gt;"-",LEN(AA60)&lt;&gt;0)," DEFAULT "&amp;AA60,"")
+&amp;" COMMENT '"&amp;E60&amp;IF(LEN(AE60)&lt;&gt;0,AE60,"")&amp;"',",
+IF(LEN(B60)&lt;&gt;0,"
+DROP TABLE IF EXISTS `"&amp;B60&amp;"`;
+-- --------------------------------------------------------
+--
+-- テーブルの構造 `"&amp;B60&amp;"`
+--
+CREATE TABLE IF NOT EXISTS `"&amp;B60&amp;"` (
+",
+IF(C60="END",
+"  PRIMARY KEY (`"&amp;F60&amp;"`, `"&amp;G60&amp;"`, `"&amp;H60&amp;"`),
+  UNIQUE KEY (`"&amp;F60&amp;"`, `"&amp;G60&amp;"`, `"&amp;H60&amp;"`)
+) ENGINE=MyISAM DEFAULT CHARSET=utf8 COMMENT='"&amp;E60&amp;"';
+","")
+)
+)</f>
         <v xml:space="preserve">  `WriteTime` varchar(256) NOT NULL    COMMENT '投稿日時',</v>
       </c>
-      <c r="BD57" s="19" t="str">
-        <f t="shared" si="0"/>
+      <c r="BD60" s="19" t="str">
+        <f>IF(OR(C60="○",C60="×"),
+"        /// &lt;summary&gt;
+        /// "&amp;E60&amp;"
+        /// &lt;/summary&gt;
+        public "&amp;BE60&amp;" "&amp;L60&amp;" { get; set; }
+",
+IF(LEN(B60)&lt;&gt;0,
+"    /// &lt;summary&gt;
+    /// "&amp;F60&amp;"
+    /// &lt;/summary&gt;
+    public class "&amp;B60&amp;"
+    {
+",
+IF(C60="END",
+"    }""",""
+)
+))</f>
         <v xml:space="preserve">        /// &lt;summary&gt;
         /// 投稿日時
         /// &lt;/summary&gt;
         public string WriteTime { get; set; }
 </v>
       </c>
-      <c r="BE57" s="20" t="str">
-        <f t="shared" si="9"/>
+      <c r="BE60" s="20" t="str">
+        <f>IF(LEN(Q60)=0,"",
+IF(Q60="tinyint","bool",
+IF(Q60="int","int",
+IF(Q60="varchar","string",
+IF(Q60="timestamp","DateTime",
+"登録されていない型です("&amp;Q60&amp;")")))))</f>
         <v>string</v>
       </c>
     </row>
-    <row r="58" spans="2:57">
-      <c r="C58" s="14" t="s">
+    <row r="61" spans="2:57">
+      <c r="C61" s="9" t="s">
         <v>283</v>
       </c>
-      <c r="D58" s="15"/>
-      <c r="E58" s="23" t="s">
+      <c r="D61" s="10"/>
+      <c r="E61" s="22" t="s">
+        <v>147</v>
+      </c>
+      <c r="F61" s="29"/>
+      <c r="G61" s="7"/>
+      <c r="H61" s="7"/>
+      <c r="I61" s="7"/>
+      <c r="J61" s="7"/>
+      <c r="K61" s="6"/>
+      <c r="L61" s="5" t="s">
+        <v>311</v>
+      </c>
+      <c r="M61" s="7"/>
+      <c r="N61" s="7"/>
+      <c r="O61" s="7"/>
+      <c r="P61" s="6"/>
+      <c r="Q61" s="5" t="s">
+        <v>282</v>
+      </c>
+      <c r="R61" s="7"/>
+      <c r="S61" s="7"/>
+      <c r="T61" s="7"/>
+      <c r="U61" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="V61" s="6"/>
+      <c r="W61" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="X61" s="10"/>
+      <c r="Y61" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="Z61" s="10"/>
+      <c r="AA61" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="AB61" s="24"/>
+      <c r="AC61" s="24"/>
+      <c r="AD61" s="10"/>
+      <c r="AE61" s="5"/>
+      <c r="AF61" s="7"/>
+      <c r="AG61" s="7"/>
+      <c r="AH61" s="7"/>
+      <c r="AI61" s="7"/>
+      <c r="AJ61" s="7"/>
+      <c r="AK61" s="7"/>
+      <c r="AL61" s="7"/>
+      <c r="AM61" s="7"/>
+      <c r="AN61" s="7"/>
+      <c r="AO61" s="7"/>
+      <c r="AP61" s="7"/>
+      <c r="AQ61" s="7"/>
+      <c r="AR61" s="7"/>
+      <c r="AS61" s="6"/>
+      <c r="AV61" s="19" t="str">
+        <f t="shared" ref="AV61" si="13">IF(OR(C61="○",C61="×"),"  `"&amp;L61&amp;"` "&amp;Q61&amp;
+IF(AND(U61&lt;&gt;"-",LEN(U61)&lt;&gt;0),"("&amp;U61&amp;")","")
+&amp;" "&amp;IF(W61="○","","NOT NULL")&amp;" "&amp;
+" "&amp;IF(Y61="○","AUTO_INCREMENT","")&amp;" "&amp;
+IF(AND(AA61&lt;&gt;"-",LEN(AA61)&lt;&gt;0)," DEFAULT "&amp;AA61,"")
+&amp;" COMMENT '"&amp;E61&amp;IF(LEN(AE61)&lt;&gt;0,AE61,"")&amp;"',",
+IF(LEN(B61)&lt;&gt;0,"
+DROP TABLE IF EXISTS `"&amp;B61&amp;"`;
+-- --------------------------------------------------------
+--
+-- テーブルの構造 `"&amp;B61&amp;"`
+--
+CREATE TABLE IF NOT EXISTS `"&amp;B61&amp;"` (
+",
+IF(C61="END",
+"  PRIMARY KEY (`"&amp;F61&amp;"`, `"&amp;G61&amp;"`, `"&amp;H61&amp;"`),
+  UNIQUE KEY (`"&amp;F61&amp;"`, `"&amp;G61&amp;"`, `"&amp;H61&amp;"`)
+) ENGINE=MyISAM DEFAULT CHARSET=utf8 COMMENT='"&amp;E61&amp;"';
+","")
+)
+)</f>
+        <v xml:space="preserve">  `WriterId` varchar(256) NOT NULL    COMMENT 'ID',</v>
+      </c>
+      <c r="BD61" s="19" t="str">
+        <f t="shared" ref="BD61" si="14">IF(OR(C61="○",C61="×"),
+"        /// &lt;summary&gt;
+        /// "&amp;E61&amp;"
+        /// &lt;/summary&gt;
+        public "&amp;BE61&amp;" "&amp;L61&amp;" { get; set; }
+",
+IF(LEN(B61)&lt;&gt;0,
+"    /// &lt;summary&gt;
+    /// "&amp;F61&amp;"
+    /// &lt;/summary&gt;
+    public class "&amp;B61&amp;"
+    {
+",
+IF(C61="END",
+"    }""",""
+)
+))</f>
+        <v xml:space="preserve">        /// &lt;summary&gt;
+        /// ID
+        /// &lt;/summary&gt;
+        public string WriterId { get; set; }
+</v>
+      </c>
+      <c r="BE61" s="20" t="str">
+        <f t="shared" ref="BE61" si="15">IF(LEN(Q61)=0,"",
+IF(Q61="tinyint","bool",
+IF(Q61="int","int",
+IF(Q61="varchar","string",
+IF(Q61="timestamp","DateTime",
+"登録されていない型です("&amp;Q61&amp;")")))))</f>
+        <v>string</v>
+      </c>
+    </row>
+    <row r="62" spans="2:57">
+      <c r="C62" s="9" t="s">
+        <v>283</v>
+      </c>
+      <c r="D62" s="10"/>
+      <c r="E62" s="22" t="s">
+        <v>257</v>
+      </c>
+      <c r="F62" s="29"/>
+      <c r="G62" s="7"/>
+      <c r="H62" s="7"/>
+      <c r="I62" s="7"/>
+      <c r="J62" s="7"/>
+      <c r="K62" s="6"/>
+      <c r="L62" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="M62" s="7"/>
+      <c r="N62" s="7"/>
+      <c r="O62" s="7"/>
+      <c r="P62" s="6"/>
+      <c r="Q62" s="5" t="s">
+        <v>282</v>
+      </c>
+      <c r="R62" s="7"/>
+      <c r="S62" s="7"/>
+      <c r="T62" s="7"/>
+      <c r="U62" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="V62" s="6"/>
+      <c r="W62" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="X62" s="10"/>
+      <c r="Y62" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="Z62" s="10"/>
+      <c r="AA62" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="AB62" s="24"/>
+      <c r="AC62" s="24"/>
+      <c r="AD62" s="10"/>
+      <c r="AE62" s="5"/>
+      <c r="AF62" s="7"/>
+      <c r="AG62" s="7"/>
+      <c r="AH62" s="7"/>
+      <c r="AI62" s="7"/>
+      <c r="AJ62" s="7"/>
+      <c r="AK62" s="7"/>
+      <c r="AL62" s="7"/>
+      <c r="AM62" s="7"/>
+      <c r="AN62" s="7"/>
+      <c r="AO62" s="7"/>
+      <c r="AP62" s="7"/>
+      <c r="AQ62" s="7"/>
+      <c r="AR62" s="7"/>
+      <c r="AS62" s="6"/>
+      <c r="AV62" s="19" t="str">
+        <f t="shared" si="10"/>
+        <v xml:space="preserve">  `Message` varchar(256) NOT NULL    COMMENT '本文',</v>
+      </c>
+      <c r="BD62" s="19" t="str">
+        <f t="shared" si="11"/>
+        <v xml:space="preserve">        /// &lt;summary&gt;
+        /// 本文
+        /// &lt;/summary&gt;
+        public string Message { get; set; }
+</v>
+      </c>
+      <c r="BE62" s="20" t="str">
+        <f t="shared" si="12"/>
+        <v>string</v>
+      </c>
+    </row>
+    <row r="63" spans="2:57">
+      <c r="C63" s="14" t="s">
+        <v>283</v>
+      </c>
+      <c r="D63" s="15"/>
+      <c r="E63" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="F58" s="30"/>
-      <c r="G58" s="17"/>
-      <c r="H58" s="17"/>
-      <c r="I58" s="17"/>
-      <c r="J58" s="17"/>
-      <c r="K58" s="18"/>
-      <c r="L58" s="16" t="s">
+      <c r="F63" s="30"/>
+      <c r="G63" s="17"/>
+      <c r="H63" s="17"/>
+      <c r="I63" s="17"/>
+      <c r="J63" s="17"/>
+      <c r="K63" s="18"/>
+      <c r="L63" s="16" t="s">
         <v>264</v>
       </c>
-      <c r="M58" s="17"/>
-      <c r="N58" s="17"/>
-      <c r="O58" s="17"/>
-      <c r="P58" s="18"/>
-      <c r="Q58" s="16" t="s">
+      <c r="M63" s="17"/>
+      <c r="N63" s="17"/>
+      <c r="O63" s="17"/>
+      <c r="P63" s="18"/>
+      <c r="Q63" s="16" t="s">
         <v>292</v>
       </c>
-      <c r="R58" s="17"/>
-      <c r="S58" s="17"/>
-      <c r="T58" s="17"/>
-      <c r="U58" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="V58" s="18"/>
-      <c r="W58" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="X58" s="15"/>
-      <c r="Y58" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="Z58" s="15"/>
-      <c r="AA58" s="26" t="s">
+      <c r="R63" s="17"/>
+      <c r="S63" s="17"/>
+      <c r="T63" s="17"/>
+      <c r="U63" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="V63" s="18"/>
+      <c r="W63" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="X63" s="15"/>
+      <c r="Y63" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="Z63" s="15"/>
+      <c r="AA63" s="26" t="s">
         <v>298</v>
       </c>
-      <c r="AB58" s="25"/>
-      <c r="AC58" s="25"/>
-      <c r="AD58" s="15"/>
-      <c r="AE58" s="16"/>
-      <c r="AF58" s="17"/>
-      <c r="AG58" s="17"/>
-      <c r="AH58" s="17"/>
-      <c r="AI58" s="17"/>
-      <c r="AJ58" s="17"/>
-      <c r="AK58" s="17"/>
-      <c r="AL58" s="17"/>
-      <c r="AM58" s="17"/>
-      <c r="AN58" s="17"/>
-      <c r="AO58" s="17"/>
-      <c r="AP58" s="17"/>
-      <c r="AQ58" s="17"/>
-      <c r="AR58" s="17"/>
-      <c r="AS58" s="18"/>
-      <c r="AV58" s="19" t="str">
+      <c r="AB63" s="25"/>
+      <c r="AC63" s="25"/>
+      <c r="AD63" s="15"/>
+      <c r="AE63" s="16"/>
+      <c r="AF63" s="17"/>
+      <c r="AG63" s="17"/>
+      <c r="AH63" s="17"/>
+      <c r="AI63" s="17"/>
+      <c r="AJ63" s="17"/>
+      <c r="AK63" s="17"/>
+      <c r="AL63" s="17"/>
+      <c r="AM63" s="17"/>
+      <c r="AN63" s="17"/>
+      <c r="AO63" s="17"/>
+      <c r="AP63" s="17"/>
+      <c r="AQ63" s="17"/>
+      <c r="AR63" s="17"/>
+      <c r="AS63" s="18"/>
+      <c r="AV63" s="19" t="str">
         <f t="shared" si="4"/>
         <v xml:space="preserve">  `UpdateTime` timestamp NOT NULL    DEFAULT CURRENT_TIMESTAMP COMMENT '更新日時',</v>
       </c>
-      <c r="BD58" s="19" t="str">
+      <c r="BD63" s="19" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">        /// &lt;summary&gt;
         /// 更新日時
@@ -6356,153 +6823,80 @@
         public DateTime UpdateTime { get; set; }
 </v>
       </c>
-      <c r="BE58" s="20" t="str">
+      <c r="BE63" s="20" t="str">
         <f t="shared" si="9"/>
         <v>DateTime</v>
       </c>
     </row>
-    <row r="59" spans="2:57">
-      <c r="C59" s="1" t="s">
+    <row r="64" spans="2:57">
+      <c r="C64" s="1" t="s">
         <v>293</v>
       </c>
-      <c r="E59" s="8" t="s">
+      <c r="E64" s="8" t="s">
         <v>268</v>
       </c>
-      <c r="F59" s="1" t="str">
+      <c r="F64" s="1" t="str">
         <f>L53</f>
         <v>ThreadUrl</v>
       </c>
-      <c r="G59" s="1" t="str">
+      <c r="G64" s="1" t="str">
         <f>L54</f>
         <v>ResNo</v>
       </c>
-      <c r="H59" s="1" t="str">
+      <c r="H64" s="1" t="str">
         <f>L55</f>
         <v>ImageNo</v>
       </c>
-      <c r="I59" s="20"/>
-      <c r="J59" s="20"/>
-      <c r="K59" s="20"/>
-      <c r="L59" s="20"/>
-      <c r="M59" s="20"/>
-      <c r="N59" s="20"/>
-      <c r="O59" s="20"/>
-      <c r="P59" s="20"/>
-      <c r="Q59" s="20"/>
-      <c r="R59" s="20"/>
-      <c r="S59" s="20"/>
-      <c r="T59" s="20"/>
-      <c r="U59" s="20"/>
-      <c r="V59" s="20"/>
-      <c r="W59" s="20"/>
-      <c r="X59" s="20"/>
-      <c r="Y59" s="20"/>
-      <c r="Z59" s="20"/>
-      <c r="AA59" s="20"/>
-      <c r="AB59" s="20"/>
-      <c r="AC59" s="20"/>
-      <c r="AD59" s="20"/>
-      <c r="AE59" s="20"/>
-      <c r="AF59" s="20"/>
-      <c r="AG59" s="20"/>
-      <c r="AH59" s="20"/>
-      <c r="AI59" s="20"/>
-      <c r="AJ59" s="20"/>
-      <c r="AK59" s="20"/>
-      <c r="AL59" s="20"/>
-      <c r="AM59" s="20"/>
-      <c r="AN59" s="20"/>
-      <c r="AO59" s="20"/>
-      <c r="AP59" s="20"/>
-      <c r="AQ59" s="20"/>
-      <c r="AR59" s="20"/>
-      <c r="AS59" s="20"/>
-      <c r="AV59" s="19" t="str">
+      <c r="I64" s="20"/>
+      <c r="J64" s="20"/>
+      <c r="K64" s="20"/>
+      <c r="L64" s="20"/>
+      <c r="M64" s="20"/>
+      <c r="N64" s="20"/>
+      <c r="O64" s="20"/>
+      <c r="P64" s="20"/>
+      <c r="Q64" s="20"/>
+      <c r="R64" s="20"/>
+      <c r="S64" s="20"/>
+      <c r="T64" s="20"/>
+      <c r="U64" s="20"/>
+      <c r="V64" s="20"/>
+      <c r="W64" s="20"/>
+      <c r="X64" s="20"/>
+      <c r="Y64" s="20"/>
+      <c r="Z64" s="20"/>
+      <c r="AA64" s="20"/>
+      <c r="AB64" s="20"/>
+      <c r="AC64" s="20"/>
+      <c r="AD64" s="20"/>
+      <c r="AE64" s="20"/>
+      <c r="AF64" s="20"/>
+      <c r="AG64" s="20"/>
+      <c r="AH64" s="20"/>
+      <c r="AI64" s="20"/>
+      <c r="AJ64" s="20"/>
+      <c r="AK64" s="20"/>
+      <c r="AL64" s="20"/>
+      <c r="AM64" s="20"/>
+      <c r="AN64" s="20"/>
+      <c r="AO64" s="20"/>
+      <c r="AP64" s="20"/>
+      <c r="AQ64" s="20"/>
+      <c r="AR64" s="20"/>
+      <c r="AS64" s="20"/>
+      <c r="AV64" s="19" t="str">
         <f t="shared" si="4"/>
         <v xml:space="preserve">  PRIMARY KEY (`ThreadUrl`, `ResNo`, `ImageNo`),
   UNIQUE KEY (`ThreadUrl`, `ResNo`, `ImageNo`)
 ) ENGINE=MyISAM DEFAULT CHARSET=utf8 COMMENT='画像URL';
 </v>
       </c>
-      <c r="BD59" s="19" t="str">
+      <c r="BD64" s="19" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">    }"</v>
       </c>
-      <c r="BE59" s="20" t="str">
+      <c r="BE64" s="20" t="str">
         <f t="shared" si="9"/>
-        <v/>
-      </c>
-    </row>
-    <row r="60" spans="2:57">
-      <c r="AV60" s="19" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="BD60" s="19" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="BE60" s="20" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-    </row>
-    <row r="61" spans="2:57">
-      <c r="AV61" s="19" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="BD61" s="19" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="BE61" s="20" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-    </row>
-    <row r="62" spans="2:57">
-      <c r="AV62" s="19" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="BD62" s="19" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="BE62" s="20" t="str">
-        <f t="shared" ref="BE62:BE68" si="13">IF(LEN(Q62)=0,"",
-IF(Q62="varchar","string",
-IF(Q62="timestamp","DateTime",
-"登録されていない型です("&amp;Q62&amp;")")))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="63" spans="2:57">
-      <c r="AV63" s="19" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="BD63" s="19" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="BE63" s="20" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
-    </row>
-    <row r="64" spans="2:57">
-      <c r="AV64" s="19" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="BD64" s="19" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="BE64" s="20" t="str">
-        <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
@@ -6516,7 +6910,7 @@
         <v/>
       </c>
       <c r="BE65" s="20" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
@@ -6530,7 +6924,7 @@
         <v/>
       </c>
       <c r="BE66" s="20" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
@@ -6544,7 +6938,10 @@
         <v/>
       </c>
       <c r="BE67" s="20" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" ref="BE67:BE73" si="16">IF(LEN(Q67)=0,"",
+IF(Q67="varchar","string",
+IF(Q67="timestamp","DateTime",
+"登録されていない型です("&amp;Q67&amp;")")))</f>
         <v/>
       </c>
     </row>
@@ -6554,100 +6951,97 @@
         <v/>
       </c>
       <c r="BD68" s="19" t="str">
-        <f t="shared" ref="BD68:BD74" si="14">IF(OR(C68="○",C68="×"),
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="BE68" s="20" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+    </row>
+    <row r="69" spans="48:57">
+      <c r="AV69" s="19" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="BD69" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="BE69" s="20" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+    </row>
+    <row r="70" spans="48:57">
+      <c r="AV70" s="19" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="BD70" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="BE70" s="20" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+    </row>
+    <row r="71" spans="48:57">
+      <c r="AV71" s="19" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="BD71" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="BE71" s="20" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+    </row>
+    <row r="72" spans="48:57">
+      <c r="AV72" s="19" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="BD72" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="BE72" s="20" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+    </row>
+    <row r="73" spans="48:57">
+      <c r="AV73" s="19" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="BD73" s="19" t="str">
+        <f t="shared" ref="BD73:BD79" si="17">IF(OR(C73="○",C73="×"),
 "        /// &lt;summary&gt;
-        /// "&amp;E68&amp;"
+        /// "&amp;E73&amp;"
         /// &lt;/summary&gt;
-        public "&amp;BE68&amp;" "&amp;L68&amp;" { get; set; }
+        public "&amp;BE73&amp;" "&amp;L73&amp;" { get; set; }
 ",
-IF(LEN(B68)&lt;&gt;0,
+IF(LEN(B73)&lt;&gt;0,
 "    /// &lt;summary&gt;
-    /// "&amp;F68&amp;"
+    /// "&amp;F73&amp;"
     /// &lt;/summary&gt;
-    public class "&amp;B68&amp;"
+    public class "&amp;B73&amp;"
     {
 ",
-IF(C68="END",
+IF(C73="END",
 "    }""",""
 )
 ))</f>
         <v/>
       </c>
-      <c r="BE68" s="20" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
-    </row>
-    <row r="69" spans="48:57">
-      <c r="AV69" s="19" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="BD69" s="19" t="str">
-        <f t="shared" si="14"/>
-        <v/>
-      </c>
-      <c r="BE69" s="20" t="str">
-        <f t="shared" ref="BE69:BE74" si="15">IF(LEN(Q69)=0,"",
-IF(Q69="varchar","string",
-IF(Q69="timestamp","DateTime",
-"登録されていない型です("&amp;Q69&amp;")")))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="70" spans="48:57">
-      <c r="AV70" s="19" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="BD70" s="19" t="str">
-        <f t="shared" si="14"/>
-        <v/>
-      </c>
-      <c r="BE70" s="20" t="str">
-        <f t="shared" si="15"/>
-        <v/>
-      </c>
-    </row>
-    <row r="71" spans="48:57">
-      <c r="AV71" s="19" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="BD71" s="19" t="str">
-        <f t="shared" si="14"/>
-        <v/>
-      </c>
-      <c r="BE71" s="20" t="str">
-        <f t="shared" si="15"/>
-        <v/>
-      </c>
-    </row>
-    <row r="72" spans="48:57">
-      <c r="AV72" s="19" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="BD72" s="19" t="str">
-        <f t="shared" si="14"/>
-        <v/>
-      </c>
-      <c r="BE72" s="20" t="str">
-        <f t="shared" si="15"/>
-        <v/>
-      </c>
-    </row>
-    <row r="73" spans="48:57">
-      <c r="AV73" s="19" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="BD73" s="19" t="str">
-        <f t="shared" si="14"/>
-        <v/>
-      </c>
       <c r="BE73" s="20" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
@@ -6657,11 +7051,84 @@
         <v/>
       </c>
       <c r="BD74" s="19" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="BE74" s="20" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" ref="BE74:BE79" si="18">IF(LEN(Q74)=0,"",
+IF(Q74="varchar","string",
+IF(Q74="timestamp","DateTime",
+"登録されていない型です("&amp;Q74&amp;")")))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="75" spans="48:57">
+      <c r="AV75" s="19" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="BD75" s="19" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="BE75" s="20" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+    </row>
+    <row r="76" spans="48:57">
+      <c r="AV76" s="19" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="BD76" s="19" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="BE76" s="20" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+    </row>
+    <row r="77" spans="48:57">
+      <c r="AV77" s="19" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="BD77" s="19" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="BE77" s="20" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+    </row>
+    <row r="78" spans="48:57">
+      <c r="AV78" s="19" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="BD78" s="19" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="BE78" s="20" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+    </row>
+    <row r="79" spans="48:57">
+      <c r="AV79" s="19" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="BD79" s="19" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="BE79" s="20" t="str">
+        <f t="shared" si="18"/>
         <v/>
       </c>
     </row>
